--- a/A. Documents/Tài liệu testcase.xlsx
+++ b/A. Documents/Tài liệu testcase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Git\QLNhaThuoc\A. Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\BaoCaoMonCNPM\QLNhaThuoc\A. Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
-  <si>
-    <t>Mã dự án: [MaDA]</t>
-  </si>
-  <si>
-    <t>Mã tài liệu: [MaTL]</t>
-  </si>
-  <si>
-    <t>Phiên bản: [v1.0]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>Trang ký</t>
   </si>
@@ -51,18 +42,12 @@
     <t xml:space="preserve">Người lập: </t>
   </si>
   <si>
-    <t>[Nguyễn Văn A]</t>
-  </si>
-  <si>
     <t>[Tester]</t>
   </si>
   <si>
     <t>Người xem xét:</t>
   </si>
   <si>
-    <t>[Team leader]</t>
-  </si>
-  <si>
     <t>Người phê duyệt:</t>
   </si>
   <si>
@@ -255,20 +240,38 @@
     <t>PE</t>
   </si>
   <si>
-    <t>[Tên dự án]
+    <t>[Nguyễn Văn C]</t>
+  </si>
+  <si>
+    <t>Nhóm 3</t>
+  </si>
+  <si>
+    <t>20/05/2016</t>
+  </si>
+  <si>
+    <t>Quản lý nhà thuốc
 TÀI LIỆU ĐẶC TẢ TEST CASE</t>
   </si>
   <si>
-    <t>[Nguyễn Văn B]</t>
-  </si>
-  <si>
-    <t>[Nguyễn Văn C]</t>
+    <t>Mã dự án: QLNT</t>
+  </si>
+  <si>
+    <t>Mã tài liệu: 06_DTTC_QLNT</t>
+  </si>
+  <si>
+    <t>Phiên bản: v1.0</t>
+  </si>
+  <si>
+    <t>Tạo mới</t>
+  </si>
+  <si>
+    <t>Tạo mới tài liệu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -528,23 +531,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -580,23 +566,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -776,7 +745,7 @@
   <dimension ref="D8:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,7 +757,7 @@
     <row r="9" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="4:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -796,17 +765,17 @@
     </row>
     <row r="11" spans="4:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -870,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -882,7 +851,7 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -923,50 +892,48 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -981,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -997,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1038,34 +1005,42 @@
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1291,21 +1266,21 @@
   <sheetData>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,12 +1345,12 @@
     </row>
     <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1375,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1412,13 +1387,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,10 +1412,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,13 +1500,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1538,7 @@
   <sheetData>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1589,34 +1564,34 @@
     </row>
     <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1624,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1640,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1874,7 +1849,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1887,95 +1862,95 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="I10" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -1983,14 +1958,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -2159,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
